--- a/Docs/Struct Design.xlsx
+++ b/Docs/Struct Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Network\_Network Game Programming\2017-Network-Game-Programming\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Message Struct</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,11 +143,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vector 2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector 2D&lt;float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Granade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ammunition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun Ammo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FD93E0-0E04-4B42-B422-CA1BF54032A1}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,7 +640,10 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,7 +655,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -635,29 +677,35 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -665,9 +713,12 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -675,28 +726,69 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Struct Design.xlsx
+++ b/Docs/Struct Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Network\_Network Game Programming\2017-Network-Game-Programming\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\System32\HomeWork\FinalWOrk\2017-Network-Game-Programming\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
